--- a/assets/stages/maps/MapEditor/Room6.xlsx
+++ b/assets/stages/maps/MapEditor/Room6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\互联网应用实践\portal_2d-master\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FB36F1-7977-4D69-937B-4BA09949FA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18017BFE-00B3-4D92-9786-1DDC5B65E5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AJ6:AK6"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -574,37 +574,37 @@
         <v>2</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W2" s="1">
         <v>2</v>
@@ -702,7 +702,7 @@
         <v>-1</v>
       </c>
       <c r="V3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W3" s="1">
         <v>2</v>
@@ -800,34 +800,34 @@
         <v>-1</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="1">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>-1</v>
       </c>
       <c r="AE9" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="1">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>-1</v>
       </c>
       <c r="AE10" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF10" s="1">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>-1</v>
       </c>
       <c r="AE11" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="1">
         <v>1</v>
@@ -1709,7 +1709,7 @@
         <v>-1</v>
       </c>
       <c r="AE13" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="1">
         <v>1</v>
@@ -1807,7 +1807,7 @@
         <v>-1</v>
       </c>
       <c r="AE14" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="1">
         <v>1</v>

--- a/assets/stages/maps/MapEditor/Room6.xlsx
+++ b/assets/stages/maps/MapEditor/Room6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7B692F-D547-4E87-9932-8610FA9B7E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC814EE-616E-4F8E-9DE7-11E67EF7CD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="23040" windowHeight="14100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,18 @@
     <sheet name="SignArea" sheetId="4" r:id="rId4"/>
     <sheet name="backgroundObjects" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -435,7 +446,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:K12"/>
+      <selection activeCell="P9" sqref="P9:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2867,12 +2878,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="I6:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2901,15 +2947,51 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="J11:K12"/>
+  <dimension ref="I6:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P9:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="10" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="11" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>18</v>
+      </c>
+      <c r="Q9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>18</v>
+      </c>
+      <c r="Q10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="9:17" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>0</v>
       </c>
@@ -2917,7 +2999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="9:17" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>0</v>
       </c>
